--- a/daftar hadir.xlsx
+++ b/daftar hadir.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CV Pixel Dev Intern\LAPORAN CV PIXEL DEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D54EB49-909E-4832-9C51-135C673644C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F11294-8DD3-4D5B-9883-73FAF20947A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,8 +307,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,11 +319,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -614,7 +614,7 @@
   <dimension ref="A1:AH129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+      <selection activeCell="A23" sqref="A23:AH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,124 +625,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
     </row>
     <row r="3" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
     </row>
     <row r="4" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -775,91 +775,91 @@
       <c r="AH4" s="4"/>
     </row>
     <row r="5" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
     </row>
     <row r="6" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
     </row>
     <row r="7" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="1">
         <v>1</v>
       </c>
@@ -1159,10 +1159,10 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1182,27 +1182,27 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="18" t="s">
+      <c r="W14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1271,138 +1271,138 @@
       <c r="AE16" s="3"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="W19" s="18" t="s">
+      <c r="W19" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
     </row>
     <row r="23" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
     </row>
     <row r="24" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
     </row>
     <row r="25" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
     </row>
     <row r="26" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1435,91 +1435,91 @@
       <c r="AH26" s="4"/>
     </row>
     <row r="27" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="20"/>
-      <c r="AH27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="21"/>
+      <c r="AH27" s="21"/>
     </row>
     <row r="28" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="21"/>
-      <c r="AG28" s="21"/>
-      <c r="AH28" s="21"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
     </row>
     <row r="29" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="1">
         <v>1</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="14"/>
-      <c r="X31" s="22"/>
+      <c r="X31" s="18"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
@@ -1819,10 +1819,10 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1842,27 +1842,27 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="18" t="s">
+      <c r="W36" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="18"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="18"/>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="18"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="18"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1931,138 +1931,138 @@
       <c r="AE38" s="3"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="W41" s="18" t="s">
+      <c r="W41" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-      <c r="AE41" s="18"/>
-      <c r="AF41" s="18"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
     </row>
     <row r="45" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
-      <c r="AG45" s="19"/>
-      <c r="AH45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="20"/>
+      <c r="AH45" s="20"/>
     </row>
     <row r="46" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
-      <c r="AG46" s="19"/>
-      <c r="AH46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
     </row>
     <row r="47" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20"/>
     </row>
     <row r="48" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -2095,91 +2095,91 @@
       <c r="AH48" s="4"/>
     </row>
     <row r="49" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="20"/>
-      <c r="AC49" s="20"/>
-      <c r="AD49" s="20"/>
-      <c r="AE49" s="20"/>
-      <c r="AF49" s="20"/>
-      <c r="AG49" s="20"/>
-      <c r="AH49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="21"/>
+      <c r="AD49" s="21"/>
+      <c r="AE49" s="21"/>
+      <c r="AF49" s="21"/>
+      <c r="AG49" s="21"/>
+      <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="21"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="21"/>
-      <c r="AE50" s="21"/>
-      <c r="AF50" s="21"/>
-      <c r="AG50" s="21"/>
-      <c r="AH50" s="21"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+      <c r="AF50" s="19"/>
+      <c r="AG50" s="19"/>
+      <c r="AH50" s="19"/>
     </row>
     <row r="51" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="1">
         <v>1</v>
       </c>
@@ -2479,10 +2479,10 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="18"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -2502,27 +2502,27 @@
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
-      <c r="W58" s="18" t="s">
+      <c r="W58" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="18"/>
-      <c r="AA58" s="18"/>
-      <c r="AB58" s="18"/>
-      <c r="AC58" s="18"/>
-      <c r="AD58" s="18"/>
-      <c r="AE58" s="18"/>
-      <c r="AF58" s="18"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="22"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="22"/>
+      <c r="AF58" s="22"/>
       <c r="AG58" s="3"/>
       <c r="AH58" s="3"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="18"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -2591,138 +2591,138 @@
       <c r="AE60" s="3"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="W63" s="18" t="s">
+      <c r="W63" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="18"/>
-      <c r="AA63" s="18"/>
-      <c r="AB63" s="18"/>
-      <c r="AC63" s="18"/>
-      <c r="AD63" s="18"/>
-      <c r="AE63" s="18"/>
-      <c r="AF63" s="18"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="22"/>
+      <c r="AE63" s="22"/>
+      <c r="AF63" s="22"/>
     </row>
     <row r="67" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
-      <c r="V67" s="19"/>
-      <c r="W67" s="19"/>
-      <c r="X67" s="19"/>
-      <c r="Y67" s="19"/>
-      <c r="Z67" s="19"/>
-      <c r="AA67" s="19"/>
-      <c r="AB67" s="19"/>
-      <c r="AC67" s="19"/>
-      <c r="AD67" s="19"/>
-      <c r="AE67" s="19"/>
-      <c r="AF67" s="19"/>
-      <c r="AG67" s="19"/>
-      <c r="AH67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="20"/>
+      <c r="AC67" s="20"/>
+      <c r="AD67" s="20"/>
+      <c r="AE67" s="20"/>
+      <c r="AF67" s="20"/>
+      <c r="AG67" s="20"/>
+      <c r="AH67" s="20"/>
     </row>
     <row r="68" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="19"/>
-      <c r="Z68" s="19"/>
-      <c r="AA68" s="19"/>
-      <c r="AB68" s="19"/>
-      <c r="AC68" s="19"/>
-      <c r="AD68" s="19"/>
-      <c r="AE68" s="19"/>
-      <c r="AF68" s="19"/>
-      <c r="AG68" s="19"/>
-      <c r="AH68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="20"/>
+      <c r="AA68" s="20"/>
+      <c r="AB68" s="20"/>
+      <c r="AC68" s="20"/>
+      <c r="AD68" s="20"/>
+      <c r="AE68" s="20"/>
+      <c r="AF68" s="20"/>
+      <c r="AG68" s="20"/>
+      <c r="AH68" s="20"/>
     </row>
     <row r="69" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
-      <c r="T69" s="19"/>
-      <c r="U69" s="19"/>
-      <c r="V69" s="19"/>
-      <c r="W69" s="19"/>
-      <c r="X69" s="19"/>
-      <c r="Y69" s="19"/>
-      <c r="Z69" s="19"/>
-      <c r="AA69" s="19"/>
-      <c r="AB69" s="19"/>
-      <c r="AC69" s="19"/>
-      <c r="AD69" s="19"/>
-      <c r="AE69" s="19"/>
-      <c r="AF69" s="19"/>
-      <c r="AG69" s="19"/>
-      <c r="AH69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="20"/>
+      <c r="AA69" s="20"/>
+      <c r="AB69" s="20"/>
+      <c r="AC69" s="20"/>
+      <c r="AD69" s="20"/>
+      <c r="AE69" s="20"/>
+      <c r="AF69" s="20"/>
+      <c r="AG69" s="20"/>
+      <c r="AH69" s="20"/>
     </row>
     <row r="70" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -2755,91 +2755,91 @@
       <c r="AH70" s="4"/>
     </row>
     <row r="71" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-      <c r="V71" s="20"/>
-      <c r="W71" s="20"/>
-      <c r="X71" s="20"/>
-      <c r="Y71" s="20"/>
-      <c r="Z71" s="20"/>
-      <c r="AA71" s="20"/>
-      <c r="AB71" s="20"/>
-      <c r="AC71" s="20"/>
-      <c r="AD71" s="20"/>
-      <c r="AE71" s="20"/>
-      <c r="AF71" s="20"/>
-      <c r="AG71" s="20"/>
-      <c r="AH71" s="20"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
+      <c r="AB71" s="21"/>
+      <c r="AC71" s="21"/>
+      <c r="AD71" s="21"/>
+      <c r="AE71" s="21"/>
+      <c r="AF71" s="21"/>
+      <c r="AG71" s="21"/>
+      <c r="AH71" s="21"/>
     </row>
     <row r="72" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
-      <c r="U72" s="21"/>
-      <c r="V72" s="21"/>
-      <c r="W72" s="21"/>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="21"/>
-      <c r="Z72" s="21"/>
-      <c r="AA72" s="21"/>
-      <c r="AB72" s="21"/>
-      <c r="AC72" s="21"/>
-      <c r="AD72" s="21"/>
-      <c r="AE72" s="21"/>
-      <c r="AF72" s="21"/>
-      <c r="AG72" s="21"/>
-      <c r="AH72" s="21"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="19"/>
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="19"/>
+      <c r="AD72" s="19"/>
+      <c r="AE72" s="19"/>
+      <c r="AF72" s="19"/>
+      <c r="AG72" s="19"/>
+      <c r="AH72" s="19"/>
     </row>
     <row r="73" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="1">
         <v>1</v>
       </c>
@@ -3139,10 +3139,10 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="18"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -3162,27 +3162,27 @@
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
-      <c r="W80" s="18" t="s">
+      <c r="W80" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="18"/>
-      <c r="AB80" s="18"/>
-      <c r="AC80" s="18"/>
-      <c r="AD80" s="18"/>
-      <c r="AE80" s="18"/>
-      <c r="AF80" s="18"/>
+      <c r="X80" s="22"/>
+      <c r="Y80" s="22"/>
+      <c r="Z80" s="22"/>
+      <c r="AA80" s="22"/>
+      <c r="AB80" s="22"/>
+      <c r="AC80" s="22"/>
+      <c r="AD80" s="22"/>
+      <c r="AE80" s="22"/>
+      <c r="AF80" s="22"/>
       <c r="AG80" s="3"/>
       <c r="AH80" s="3"/>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="18"/>
+      <c r="C81" s="22"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -3251,138 +3251,138 @@
       <c r="AE82" s="3"/>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="W85" s="18" t="s">
+      <c r="W85" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="X85" s="18"/>
-      <c r="Y85" s="18"/>
-      <c r="Z85" s="18"/>
-      <c r="AA85" s="18"/>
-      <c r="AB85" s="18"/>
-      <c r="AC85" s="18"/>
-      <c r="AD85" s="18"/>
-      <c r="AE85" s="18"/>
-      <c r="AF85" s="18"/>
+      <c r="X85" s="22"/>
+      <c r="Y85" s="22"/>
+      <c r="Z85" s="22"/>
+      <c r="AA85" s="22"/>
+      <c r="AB85" s="22"/>
+      <c r="AC85" s="22"/>
+      <c r="AD85" s="22"/>
+      <c r="AE85" s="22"/>
+      <c r="AF85" s="22"/>
     </row>
     <row r="89" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
-      <c r="S89" s="19"/>
-      <c r="T89" s="19"/>
-      <c r="U89" s="19"/>
-      <c r="V89" s="19"/>
-      <c r="W89" s="19"/>
-      <c r="X89" s="19"/>
-      <c r="Y89" s="19"/>
-      <c r="Z89" s="19"/>
-      <c r="AA89" s="19"/>
-      <c r="AB89" s="19"/>
-      <c r="AC89" s="19"/>
-      <c r="AD89" s="19"/>
-      <c r="AE89" s="19"/>
-      <c r="AF89" s="19"/>
-      <c r="AG89" s="19"/>
-      <c r="AH89" s="19"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="20"/>
+      <c r="U89" s="20"/>
+      <c r="V89" s="20"/>
+      <c r="W89" s="20"/>
+      <c r="X89" s="20"/>
+      <c r="Y89" s="20"/>
+      <c r="Z89" s="20"/>
+      <c r="AA89" s="20"/>
+      <c r="AB89" s="20"/>
+      <c r="AC89" s="20"/>
+      <c r="AD89" s="20"/>
+      <c r="AE89" s="20"/>
+      <c r="AF89" s="20"/>
+      <c r="AG89" s="20"/>
+      <c r="AH89" s="20"/>
     </row>
     <row r="90" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
-      <c r="S90" s="19"/>
-      <c r="T90" s="19"/>
-      <c r="U90" s="19"/>
-      <c r="V90" s="19"/>
-      <c r="W90" s="19"/>
-      <c r="X90" s="19"/>
-      <c r="Y90" s="19"/>
-      <c r="Z90" s="19"/>
-      <c r="AA90" s="19"/>
-      <c r="AB90" s="19"/>
-      <c r="AC90" s="19"/>
-      <c r="AD90" s="19"/>
-      <c r="AE90" s="19"/>
-      <c r="AF90" s="19"/>
-      <c r="AG90" s="19"/>
-      <c r="AH90" s="19"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="20"/>
+      <c r="U90" s="20"/>
+      <c r="V90" s="20"/>
+      <c r="W90" s="20"/>
+      <c r="X90" s="20"/>
+      <c r="Y90" s="20"/>
+      <c r="Z90" s="20"/>
+      <c r="AA90" s="20"/>
+      <c r="AB90" s="20"/>
+      <c r="AC90" s="20"/>
+      <c r="AD90" s="20"/>
+      <c r="AE90" s="20"/>
+      <c r="AF90" s="20"/>
+      <c r="AG90" s="20"/>
+      <c r="AH90" s="20"/>
     </row>
     <row r="91" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
-      <c r="S91" s="19"/>
-      <c r="T91" s="19"/>
-      <c r="U91" s="19"/>
-      <c r="V91" s="19"/>
-      <c r="W91" s="19"/>
-      <c r="X91" s="19"/>
-      <c r="Y91" s="19"/>
-      <c r="Z91" s="19"/>
-      <c r="AA91" s="19"/>
-      <c r="AB91" s="19"/>
-      <c r="AC91" s="19"/>
-      <c r="AD91" s="19"/>
-      <c r="AE91" s="19"/>
-      <c r="AF91" s="19"/>
-      <c r="AG91" s="19"/>
-      <c r="AH91" s="19"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="20"/>
+      <c r="W91" s="20"/>
+      <c r="X91" s="20"/>
+      <c r="Y91" s="20"/>
+      <c r="Z91" s="20"/>
+      <c r="AA91" s="20"/>
+      <c r="AB91" s="20"/>
+      <c r="AC91" s="20"/>
+      <c r="AD91" s="20"/>
+      <c r="AE91" s="20"/>
+      <c r="AF91" s="20"/>
+      <c r="AG91" s="20"/>
+      <c r="AH91" s="20"/>
     </row>
     <row r="92" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -3415,91 +3415,91 @@
       <c r="AH92" s="4"/>
     </row>
     <row r="93" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="20"/>
-      <c r="O93" s="20"/>
-      <c r="P93" s="20"/>
-      <c r="Q93" s="20"/>
-      <c r="R93" s="20"/>
-      <c r="S93" s="20"/>
-      <c r="T93" s="20"/>
-      <c r="U93" s="20"/>
-      <c r="V93" s="20"/>
-      <c r="W93" s="20"/>
-      <c r="X93" s="20"/>
-      <c r="Y93" s="20"/>
-      <c r="Z93" s="20"/>
-      <c r="AA93" s="20"/>
-      <c r="AB93" s="20"/>
-      <c r="AC93" s="20"/>
-      <c r="AD93" s="20"/>
-      <c r="AE93" s="20"/>
-      <c r="AF93" s="20"/>
-      <c r="AG93" s="20"/>
-      <c r="AH93" s="20"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+      <c r="U93" s="21"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="21"/>
+      <c r="X93" s="21"/>
+      <c r="Y93" s="21"/>
+      <c r="Z93" s="21"/>
+      <c r="AA93" s="21"/>
+      <c r="AB93" s="21"/>
+      <c r="AC93" s="21"/>
+      <c r="AD93" s="21"/>
+      <c r="AE93" s="21"/>
+      <c r="AF93" s="21"/>
+      <c r="AG93" s="21"/>
+      <c r="AH93" s="21"/>
     </row>
     <row r="94" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
-      <c r="N94" s="21"/>
-      <c r="O94" s="21"/>
-      <c r="P94" s="21"/>
-      <c r="Q94" s="21"/>
-      <c r="R94" s="21"/>
-      <c r="S94" s="21"/>
-      <c r="T94" s="21"/>
-      <c r="U94" s="21"/>
-      <c r="V94" s="21"/>
-      <c r="W94" s="21"/>
-      <c r="X94" s="21"/>
-      <c r="Y94" s="21"/>
-      <c r="Z94" s="21"/>
-      <c r="AA94" s="21"/>
-      <c r="AB94" s="21"/>
-      <c r="AC94" s="21"/>
-      <c r="AD94" s="21"/>
-      <c r="AE94" s="21"/>
-      <c r="AF94" s="21"/>
-      <c r="AG94" s="21"/>
-      <c r="AH94" s="21"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="19"/>
+      <c r="T94" s="19"/>
+      <c r="U94" s="19"/>
+      <c r="V94" s="19"/>
+      <c r="W94" s="19"/>
+      <c r="X94" s="19"/>
+      <c r="Y94" s="19"/>
+      <c r="Z94" s="19"/>
+      <c r="AA94" s="19"/>
+      <c r="AB94" s="19"/>
+      <c r="AC94" s="19"/>
+      <c r="AD94" s="19"/>
+      <c r="AE94" s="19"/>
+      <c r="AF94" s="19"/>
+      <c r="AG94" s="19"/>
+      <c r="AH94" s="19"/>
     </row>
     <row r="95" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="1">
         <v>1</v>
       </c>
@@ -3799,10 +3799,10 @@
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="18"/>
+      <c r="C102" s="22"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -3822,27 +3822,27 @@
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
-      <c r="W102" s="18" t="s">
+      <c r="W102" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="X102" s="18"/>
-      <c r="Y102" s="18"/>
-      <c r="Z102" s="18"/>
-      <c r="AA102" s="18"/>
-      <c r="AB102" s="18"/>
-      <c r="AC102" s="18"/>
-      <c r="AD102" s="18"/>
-      <c r="AE102" s="18"/>
-      <c r="AF102" s="18"/>
+      <c r="X102" s="22"/>
+      <c r="Y102" s="22"/>
+      <c r="Z102" s="22"/>
+      <c r="AA102" s="22"/>
+      <c r="AB102" s="22"/>
+      <c r="AC102" s="22"/>
+      <c r="AD102" s="22"/>
+      <c r="AE102" s="22"/>
+      <c r="AF102" s="22"/>
       <c r="AG102" s="3"/>
       <c r="AH102" s="3"/>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C103" s="18"/>
+      <c r="C103" s="22"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -3911,138 +3911,138 @@
       <c r="AE104" s="3"/>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="W107" s="18" t="s">
+      <c r="W107" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="X107" s="18"/>
-      <c r="Y107" s="18"/>
-      <c r="Z107" s="18"/>
-      <c r="AA107" s="18"/>
-      <c r="AB107" s="18"/>
-      <c r="AC107" s="18"/>
-      <c r="AD107" s="18"/>
-      <c r="AE107" s="18"/>
-      <c r="AF107" s="18"/>
+      <c r="X107" s="22"/>
+      <c r="Y107" s="22"/>
+      <c r="Z107" s="22"/>
+      <c r="AA107" s="22"/>
+      <c r="AB107" s="22"/>
+      <c r="AC107" s="22"/>
+      <c r="AD107" s="22"/>
+      <c r="AE107" s="22"/>
+      <c r="AF107" s="22"/>
     </row>
     <row r="111" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19"/>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="19"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="19"/>
-      <c r="R111" s="19"/>
-      <c r="S111" s="19"/>
-      <c r="T111" s="19"/>
-      <c r="U111" s="19"/>
-      <c r="V111" s="19"/>
-      <c r="W111" s="19"/>
-      <c r="X111" s="19"/>
-      <c r="Y111" s="19"/>
-      <c r="Z111" s="19"/>
-      <c r="AA111" s="19"/>
-      <c r="AB111" s="19"/>
-      <c r="AC111" s="19"/>
-      <c r="AD111" s="19"/>
-      <c r="AE111" s="19"/>
-      <c r="AF111" s="19"/>
-      <c r="AG111" s="19"/>
-      <c r="AH111" s="19"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="20"/>
+      <c r="N111" s="20"/>
+      <c r="O111" s="20"/>
+      <c r="P111" s="20"/>
+      <c r="Q111" s="20"/>
+      <c r="R111" s="20"/>
+      <c r="S111" s="20"/>
+      <c r="T111" s="20"/>
+      <c r="U111" s="20"/>
+      <c r="V111" s="20"/>
+      <c r="W111" s="20"/>
+      <c r="X111" s="20"/>
+      <c r="Y111" s="20"/>
+      <c r="Z111" s="20"/>
+      <c r="AA111" s="20"/>
+      <c r="AB111" s="20"/>
+      <c r="AC111" s="20"/>
+      <c r="AD111" s="20"/>
+      <c r="AE111" s="20"/>
+      <c r="AF111" s="20"/>
+      <c r="AG111" s="20"/>
+      <c r="AH111" s="20"/>
     </row>
     <row r="112" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="19"/>
-      <c r="M112" s="19"/>
-      <c r="N112" s="19"/>
-      <c r="O112" s="19"/>
-      <c r="P112" s="19"/>
-      <c r="Q112" s="19"/>
-      <c r="R112" s="19"/>
-      <c r="S112" s="19"/>
-      <c r="T112" s="19"/>
-      <c r="U112" s="19"/>
-      <c r="V112" s="19"/>
-      <c r="W112" s="19"/>
-      <c r="X112" s="19"/>
-      <c r="Y112" s="19"/>
-      <c r="Z112" s="19"/>
-      <c r="AA112" s="19"/>
-      <c r="AB112" s="19"/>
-      <c r="AC112" s="19"/>
-      <c r="AD112" s="19"/>
-      <c r="AE112" s="19"/>
-      <c r="AF112" s="19"/>
-      <c r="AG112" s="19"/>
-      <c r="AH112" s="19"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="20"/>
+      <c r="O112" s="20"/>
+      <c r="P112" s="20"/>
+      <c r="Q112" s="20"/>
+      <c r="R112" s="20"/>
+      <c r="S112" s="20"/>
+      <c r="T112" s="20"/>
+      <c r="U112" s="20"/>
+      <c r="V112" s="20"/>
+      <c r="W112" s="20"/>
+      <c r="X112" s="20"/>
+      <c r="Y112" s="20"/>
+      <c r="Z112" s="20"/>
+      <c r="AA112" s="20"/>
+      <c r="AB112" s="20"/>
+      <c r="AC112" s="20"/>
+      <c r="AD112" s="20"/>
+      <c r="AE112" s="20"/>
+      <c r="AF112" s="20"/>
+      <c r="AG112" s="20"/>
+      <c r="AH112" s="20"/>
     </row>
     <row r="113" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-      <c r="L113" s="19"/>
-      <c r="M113" s="19"/>
-      <c r="N113" s="19"/>
-      <c r="O113" s="19"/>
-      <c r="P113" s="19"/>
-      <c r="Q113" s="19"/>
-      <c r="R113" s="19"/>
-      <c r="S113" s="19"/>
-      <c r="T113" s="19"/>
-      <c r="U113" s="19"/>
-      <c r="V113" s="19"/>
-      <c r="W113" s="19"/>
-      <c r="X113" s="19"/>
-      <c r="Y113" s="19"/>
-      <c r="Z113" s="19"/>
-      <c r="AA113" s="19"/>
-      <c r="AB113" s="19"/>
-      <c r="AC113" s="19"/>
-      <c r="AD113" s="19"/>
-      <c r="AE113" s="19"/>
-      <c r="AF113" s="19"/>
-      <c r="AG113" s="19"/>
-      <c r="AH113" s="19"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="20"/>
+      <c r="O113" s="20"/>
+      <c r="P113" s="20"/>
+      <c r="Q113" s="20"/>
+      <c r="R113" s="20"/>
+      <c r="S113" s="20"/>
+      <c r="T113" s="20"/>
+      <c r="U113" s="20"/>
+      <c r="V113" s="20"/>
+      <c r="W113" s="20"/>
+      <c r="X113" s="20"/>
+      <c r="Y113" s="20"/>
+      <c r="Z113" s="20"/>
+      <c r="AA113" s="20"/>
+      <c r="AB113" s="20"/>
+      <c r="AC113" s="20"/>
+      <c r="AD113" s="20"/>
+      <c r="AE113" s="20"/>
+      <c r="AF113" s="20"/>
+      <c r="AG113" s="20"/>
+      <c r="AH113" s="20"/>
     </row>
     <row r="114" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -4075,91 +4075,91 @@
       <c r="AH114" s="4"/>
     </row>
     <row r="115" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="20" t="s">
+      <c r="A115" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
-      <c r="K115" s="20"/>
-      <c r="L115" s="20"/>
-      <c r="M115" s="20"/>
-      <c r="N115" s="20"/>
-      <c r="O115" s="20"/>
-      <c r="P115" s="20"/>
-      <c r="Q115" s="20"/>
-      <c r="R115" s="20"/>
-      <c r="S115" s="20"/>
-      <c r="T115" s="20"/>
-      <c r="U115" s="20"/>
-      <c r="V115" s="20"/>
-      <c r="W115" s="20"/>
-      <c r="X115" s="20"/>
-      <c r="Y115" s="20"/>
-      <c r="Z115" s="20"/>
-      <c r="AA115" s="20"/>
-      <c r="AB115" s="20"/>
-      <c r="AC115" s="20"/>
-      <c r="AD115" s="20"/>
-      <c r="AE115" s="20"/>
-      <c r="AF115" s="20"/>
-      <c r="AG115" s="20"/>
-      <c r="AH115" s="20"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="21"/>
+      <c r="M115" s="21"/>
+      <c r="N115" s="21"/>
+      <c r="O115" s="21"/>
+      <c r="P115" s="21"/>
+      <c r="Q115" s="21"/>
+      <c r="R115" s="21"/>
+      <c r="S115" s="21"/>
+      <c r="T115" s="21"/>
+      <c r="U115" s="21"/>
+      <c r="V115" s="21"/>
+      <c r="W115" s="21"/>
+      <c r="X115" s="21"/>
+      <c r="Y115" s="21"/>
+      <c r="Z115" s="21"/>
+      <c r="AA115" s="21"/>
+      <c r="AB115" s="21"/>
+      <c r="AC115" s="21"/>
+      <c r="AD115" s="21"/>
+      <c r="AE115" s="21"/>
+      <c r="AF115" s="21"/>
+      <c r="AG115" s="21"/>
+      <c r="AH115" s="21"/>
     </row>
     <row r="116" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="21" t="s">
+      <c r="A116" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D116" s="21" t="s">
+      <c r="D116" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E116" s="21"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="21"/>
-      <c r="I116" s="21"/>
-      <c r="J116" s="21"/>
-      <c r="K116" s="21"/>
-      <c r="L116" s="21"/>
-      <c r="M116" s="21"/>
-      <c r="N116" s="21"/>
-      <c r="O116" s="21"/>
-      <c r="P116" s="21"/>
-      <c r="Q116" s="21"/>
-      <c r="R116" s="21"/>
-      <c r="S116" s="21"/>
-      <c r="T116" s="21"/>
-      <c r="U116" s="21"/>
-      <c r="V116" s="21"/>
-      <c r="W116" s="21"/>
-      <c r="X116" s="21"/>
-      <c r="Y116" s="21"/>
-      <c r="Z116" s="21"/>
-      <c r="AA116" s="21"/>
-      <c r="AB116" s="21"/>
-      <c r="AC116" s="21"/>
-      <c r="AD116" s="21"/>
-      <c r="AE116" s="21"/>
-      <c r="AF116" s="21"/>
-      <c r="AG116" s="21"/>
-      <c r="AH116" s="21"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="19"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="19"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="19"/>
+      <c r="R116" s="19"/>
+      <c r="S116" s="19"/>
+      <c r="T116" s="19"/>
+      <c r="U116" s="19"/>
+      <c r="V116" s="19"/>
+      <c r="W116" s="19"/>
+      <c r="X116" s="19"/>
+      <c r="Y116" s="19"/>
+      <c r="Z116" s="19"/>
+      <c r="AA116" s="19"/>
+      <c r="AB116" s="19"/>
+      <c r="AC116" s="19"/>
+      <c r="AD116" s="19"/>
+      <c r="AE116" s="19"/>
+      <c r="AF116" s="19"/>
+      <c r="AG116" s="19"/>
+      <c r="AH116" s="19"/>
     </row>
     <row r="117" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="21"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="21"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
       <c r="D117" s="1">
         <v>1</v>
       </c>
@@ -4459,10 +4459,10 @@
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="18"/>
+      <c r="C124" s="22"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -4482,27 +4482,27 @@
       <c r="T124" s="3"/>
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
-      <c r="W124" s="18" t="s">
+      <c r="W124" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="X124" s="18"/>
-      <c r="Y124" s="18"/>
-      <c r="Z124" s="18"/>
-      <c r="AA124" s="18"/>
-      <c r="AB124" s="18"/>
-      <c r="AC124" s="18"/>
-      <c r="AD124" s="18"/>
-      <c r="AE124" s="18"/>
-      <c r="AF124" s="18"/>
+      <c r="X124" s="22"/>
+      <c r="Y124" s="22"/>
+      <c r="Z124" s="22"/>
+      <c r="AA124" s="22"/>
+      <c r="AB124" s="22"/>
+      <c r="AC124" s="22"/>
+      <c r="AD124" s="22"/>
+      <c r="AE124" s="22"/>
+      <c r="AF124" s="22"/>
       <c r="AG124" s="3"/>
       <c r="AH124" s="3"/>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C125" s="18"/>
+      <c r="C125" s="22"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -4571,87 +4571,21 @@
       <c r="AE126" s="3"/>
     </row>
     <row r="129" spans="23:32" x14ac:dyDescent="0.25">
-      <c r="W129" s="18" t="s">
+      <c r="W129" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="X129" s="18"/>
-      <c r="Y129" s="18"/>
-      <c r="Z129" s="18"/>
-      <c r="AA129" s="18"/>
-      <c r="AB129" s="18"/>
-      <c r="AC129" s="18"/>
-      <c r="AD129" s="18"/>
-      <c r="AE129" s="18"/>
-      <c r="AF129" s="18"/>
+      <c r="X129" s="22"/>
+      <c r="Y129" s="22"/>
+      <c r="Z129" s="22"/>
+      <c r="AA129" s="22"/>
+      <c r="AB129" s="22"/>
+      <c r="AC129" s="22"/>
+      <c r="AD129" s="22"/>
+      <c r="AE129" s="22"/>
+      <c r="AF129" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="D6:AH6"/>
-    <mergeCell ref="A1:AH1"/>
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A5:AH5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A23:AH23"/>
-    <mergeCell ref="A24:AH24"/>
-    <mergeCell ref="A25:AH25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="W14:AF14"/>
-    <mergeCell ref="W19:AF19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A27:AH27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:AH28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="W36:AF36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="W41:AF41"/>
-    <mergeCell ref="A45:AH45"/>
-    <mergeCell ref="A46:AH46"/>
-    <mergeCell ref="A47:AH47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:AH49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:AH50"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="W58:AF58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="W63:AF63"/>
-    <mergeCell ref="A67:AH67"/>
-    <mergeCell ref="A68:AH68"/>
-    <mergeCell ref="A69:AH69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:AH71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:AH72"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="W80:AF80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="W85:AF85"/>
-    <mergeCell ref="A89:AH89"/>
-    <mergeCell ref="A90:AH90"/>
-    <mergeCell ref="A91:AH91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:AH93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:AH94"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="W102:AF102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="W107:AF107"/>
-    <mergeCell ref="A111:AH111"/>
     <mergeCell ref="B124:C124"/>
     <mergeCell ref="W124:AF124"/>
     <mergeCell ref="B125:C125"/>
@@ -4664,6 +4598,72 @@
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="C116:C117"/>
     <mergeCell ref="D116:AH116"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="W102:AF102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="W107:AF107"/>
+    <mergeCell ref="A111:AH111"/>
+    <mergeCell ref="A90:AH90"/>
+    <mergeCell ref="A91:AH91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:AH93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:AH94"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="W80:AF80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="W85:AF85"/>
+    <mergeCell ref="A89:AH89"/>
+    <mergeCell ref="A68:AH68"/>
+    <mergeCell ref="A69:AH69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:AH71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:AH72"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="W58:AF58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="W63:AF63"/>
+    <mergeCell ref="A67:AH67"/>
+    <mergeCell ref="A46:AH46"/>
+    <mergeCell ref="A47:AH47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:AH49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:AH50"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="W36:AF36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="W41:AF41"/>
+    <mergeCell ref="A45:AH45"/>
+    <mergeCell ref="A27:AH27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:AH28"/>
+    <mergeCell ref="A23:AH23"/>
+    <mergeCell ref="A24:AH24"/>
+    <mergeCell ref="A25:AH25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="W14:AF14"/>
+    <mergeCell ref="W19:AF19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D6:AH6"/>
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="A2:AH2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A5:AH5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/daftar hadir.xlsx
+++ b/daftar hadir.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CV Pixel Dev Intern\LAPORAN CV PIXEL DEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96746A62-AFBE-44DA-B1BC-33B85842F1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A287A9-C607-4174-95F8-62D6CB3515FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +236,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -361,7 +368,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -426,17 +433,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -729,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,124 +752,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
     </row>
     <row r="2" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
     </row>
     <row r="3" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
     </row>
     <row r="4" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1052,89 +1062,89 @@
       <c r="AH8" s="4"/>
     </row>
     <row r="9" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
     </row>
     <row r="10" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
     </row>
     <row r="11" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="1">
         <v>1</v>
       </c>
@@ -1425,10 +1435,10 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="13"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
       <c r="AH16" s="14"/>
     </row>
     <row r="17" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
@@ -1440,7 +1450,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
